--- a/big_fit/compiled_data.xlsx
+++ b/big_fit/compiled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45A356-41DA-4D8D-BCA5-2D830949D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F565A-A159-4B23-8F13-840D2404AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="225" windowWidth="27735" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>CAGE#</t>
   </si>
@@ -85,325 +85,148 @@
     <t>Guide</t>
   </si>
   <si>
-    <t>CAGE2392</t>
-  </si>
-  <si>
-    <t>hCREBBP</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A03</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A05</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A06</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A09</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A11</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-A12</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-B08</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E03</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E05</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E06</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E08</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E09</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E11</t>
-  </si>
-  <si>
-    <t>Miller-Plate08-E12</t>
-  </si>
-  <si>
-    <t>D3 g2</t>
-  </si>
-  <si>
-    <t>D3 g17</t>
-  </si>
-  <si>
-    <t>D7 g2</t>
-  </si>
-  <si>
-    <t>D28 g2</t>
-  </si>
-  <si>
-    <t>D28 g17</t>
-  </si>
-  <si>
-    <t>CAGE2532</t>
-  </si>
-  <si>
-    <t>hASCL1</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A03</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A05</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A06</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A08</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A09</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A11</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-A12</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E03</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E05</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E06</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E08</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E09</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E11</t>
-  </si>
-  <si>
-    <t>Miller-Plate07-E12</t>
-  </si>
-  <si>
-    <t>D3 g4</t>
-  </si>
-  <si>
-    <t>D3 g7</t>
-  </si>
-  <si>
-    <t>D28 g4</t>
-  </si>
-  <si>
-    <t>D28 g7</t>
-  </si>
-  <si>
-    <t>CAGE3400</t>
-  </si>
-  <si>
-    <t>hDCX</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A03</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A05</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A06</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A08</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A09</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A11</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-A12</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E03</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E05</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E06</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E08</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E09</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E11</t>
-  </si>
-  <si>
-    <t>Miller-Plate09-E12</t>
-  </si>
-  <si>
-    <t>D3 g14</t>
-  </si>
-  <si>
-    <t>D28 g14</t>
-  </si>
-  <si>
-    <t>CAGE3582</t>
-  </si>
-  <si>
-    <t>hCTNNB1</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A03</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A05</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A06</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A08</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A09</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A11</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-A12</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E03</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E05</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E06</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E08</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E09</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E11</t>
-  </si>
-  <si>
-    <t>Miller-Plate10-E12</t>
-  </si>
-  <si>
-    <t>D3 g1</t>
-  </si>
-  <si>
-    <t>D3 g5</t>
-  </si>
-  <si>
-    <t>D28 g1</t>
-  </si>
-  <si>
-    <t>D28 g5</t>
-  </si>
-  <si>
-    <t>CAGE2392_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE2392_final_tp</t>
-  </si>
-  <si>
-    <t>CAGE2532_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE2532_final_tp</t>
-  </si>
-  <si>
-    <t>CAGE3400_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE3400_final_tp</t>
-  </si>
-  <si>
-    <t>CAGE3582_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE3582_final_tp</t>
-  </si>
-  <si>
-    <t>CAGE2392_rep1</t>
-  </si>
-  <si>
-    <t>CAGE2392_rep2</t>
-  </si>
-  <si>
-    <t>CAGE2392_rep3</t>
-  </si>
-  <si>
-    <t>CAGE2532_rep1</t>
-  </si>
-  <si>
-    <t>CAGE2532_rep2</t>
-  </si>
-  <si>
-    <t>CAGE2532_rep3</t>
-  </si>
-  <si>
-    <t>CAGE3400_rep1</t>
-  </si>
-  <si>
-    <t>CAGE3400_rep2</t>
-  </si>
-  <si>
-    <t>CAGE3400_rep3</t>
-  </si>
-  <si>
-    <t>CAGE3582_rep1</t>
-  </si>
-  <si>
-    <t>CAGE3582_rep2</t>
-  </si>
-  <si>
-    <t>CAGE3582_rep3</t>
+    <t>Graph_Group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>CAGE3267</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A01</t>
+  </si>
+  <si>
+    <t>hFGFR3</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A02</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A03</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A04</t>
+  </si>
+  <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A05</t>
+  </si>
+  <si>
+    <t>d14</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A06</t>
+  </si>
+  <si>
+    <t>d21</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-A07</t>
+  </si>
+  <si>
+    <t>CAGE3269</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B01</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B02</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B03</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B04</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B05</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B06</t>
+  </si>
+  <si>
+    <t>Miller-Plate37-B07</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_init_tp</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_final_tp</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_init_tp</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_final_tp</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_rep3</t>
+  </si>
+  <si>
+    <t>RT-112.g9</t>
+  </si>
+  <si>
+    <t>d3.g46</t>
+  </si>
+  <si>
+    <t>RT-112.g46</t>
+  </si>
+  <si>
+    <t>d28.g46</t>
+  </si>
+  <si>
+    <t>d3.g9</t>
+  </si>
+  <si>
+    <t>d28.g9</t>
   </si>
 </sst>
 </file>
@@ -435,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -471,16 +294,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -787,27 +624,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,1735 +669,1606 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>95.1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>26.7</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>59.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>24.8</v>
+      </c>
+      <c r="G4">
+        <v>12.2</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>25.2</v>
+      </c>
+      <c r="G5">
+        <v>12.8</v>
+      </c>
+      <c r="H5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>26.9</v>
+      </c>
+      <c r="G6">
+        <v>14.1</v>
+      </c>
+      <c r="H6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>35.1</v>
+      </c>
+      <c r="G7">
+        <v>12.4</v>
+      </c>
+      <c r="H7">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>30.5</v>
+      </c>
+      <c r="G8">
+        <v>11.5</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>99.6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>94</v>
+      </c>
+      <c r="G10">
+        <v>1.7</v>
+      </c>
+      <c r="H10">
+        <v>4.3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>92.9</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>94.5</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>92.6</v>
+      </c>
+      <c r="G13">
+        <v>1.2</v>
+      </c>
+      <c r="H13">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>95.1</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>96.3</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>93.1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>5.9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>91.8</v>
-      </c>
-      <c r="G3">
-        <v>1.2</v>
-      </c>
-      <c r="H3">
-        <v>7.1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>43.9</v>
-      </c>
-      <c r="G4">
-        <v>9.4</v>
-      </c>
-      <c r="H4">
-        <v>46.7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>36.6</v>
-      </c>
-      <c r="G5">
-        <v>8.6</v>
-      </c>
-      <c r="H5">
-        <v>54.8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>85.9</v>
-      </c>
-      <c r="G6">
-        <v>2.9</v>
-      </c>
-      <c r="H6">
-        <v>11.3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7">
-        <v>82.6</v>
-      </c>
-      <c r="G7">
-        <v>3.1</v>
-      </c>
-      <c r="H7">
-        <v>14.3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G8">
-        <v>16.7</v>
-      </c>
-      <c r="H8">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>7.5</v>
-      </c>
-      <c r="G9">
-        <v>17.5</v>
-      </c>
-      <c r="H9">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>74.3</v>
-      </c>
-      <c r="G10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H10">
-        <v>20.8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11">
-        <v>74.7</v>
-      </c>
-      <c r="G11">
-        <v>5.4</v>
-      </c>
-      <c r="H11">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12">
-        <v>7.5</v>
-      </c>
-      <c r="G12">
-        <v>14.3</v>
-      </c>
-      <c r="H12">
-        <v>78.2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G13">
-        <v>15.9</v>
-      </c>
-      <c r="H13">
-        <v>79.8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>49.9</v>
-      </c>
-      <c r="G14">
-        <v>8.9</v>
-      </c>
-      <c r="H14">
-        <v>41.2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <v>10.7</v>
-      </c>
-      <c r="H15">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>5.9</v>
-      </c>
-      <c r="G16">
-        <v>15.8</v>
-      </c>
-      <c r="H16">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="I16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>6.8</v>
-      </c>
-      <c r="G17">
-        <v>13.6</v>
-      </c>
-      <c r="H17">
-        <v>79.5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18">
-        <v>69.3</v>
-      </c>
-      <c r="G18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H18">
-        <v>22.5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19">
-        <v>12.7</v>
-      </c>
-      <c r="G19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H19">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="G20">
-        <v>10.4</v>
-      </c>
-      <c r="H20">
-        <v>17.2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21">
-        <v>12.5</v>
-      </c>
-      <c r="G21">
-        <v>16.3</v>
-      </c>
-      <c r="H21">
-        <v>71.2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22">
-        <v>28.7</v>
-      </c>
-      <c r="G22">
-        <v>17.8</v>
-      </c>
-      <c r="H22">
-        <v>53.5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G23">
-        <v>6.8</v>
-      </c>
-      <c r="H23">
-        <v>91</v>
-      </c>
-      <c r="I23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24">
-        <v>25.5</v>
-      </c>
-      <c r="G24">
-        <v>21.9</v>
-      </c>
-      <c r="H24">
-        <v>52.6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>11.2</v>
-      </c>
-      <c r="H25">
-        <v>84.8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>21.2</v>
-      </c>
-      <c r="G26">
-        <v>21.5</v>
-      </c>
-      <c r="H26">
-        <v>57.4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G27">
-        <v>4.7</v>
-      </c>
-      <c r="H27">
-        <v>93.1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>6.8</v>
-      </c>
-      <c r="G28">
-        <v>24.1</v>
-      </c>
-      <c r="H28">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>5.7</v>
-      </c>
-      <c r="H29">
-        <v>93.8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30">
-        <v>22</v>
-      </c>
-      <c r="G30">
-        <v>22.6</v>
-      </c>
-      <c r="H30">
-        <v>55.4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G31">
-        <v>7.5</v>
-      </c>
-      <c r="H31">
-        <v>87.4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32">
-        <v>8.4</v>
-      </c>
-      <c r="G32">
-        <v>28.3</v>
-      </c>
-      <c r="H32">
-        <v>63.3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>7.8</v>
-      </c>
-      <c r="H33">
-        <v>91.3</v>
-      </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34">
-        <v>23.2</v>
-      </c>
-      <c r="G34">
-        <v>12.9</v>
-      </c>
-      <c r="H34">
-        <v>63.9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35">
-        <v>8.9</v>
-      </c>
-      <c r="G35">
-        <v>39.5</v>
-      </c>
-      <c r="H35">
-        <v>51.6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36">
-        <v>22.1</v>
-      </c>
-      <c r="G36">
-        <v>12.8</v>
-      </c>
-      <c r="H36">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="I36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37">
-        <v>7.6</v>
-      </c>
-      <c r="G37">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H37">
-        <v>52.7</v>
-      </c>
-      <c r="I37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38">
-        <v>22.3</v>
-      </c>
-      <c r="G38">
-        <v>13.1</v>
-      </c>
-      <c r="H38">
-        <v>64.5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39">
-        <v>6.7</v>
-      </c>
-      <c r="G39">
-        <v>51.2</v>
-      </c>
-      <c r="H39">
-        <v>42.1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40">
-        <v>15.6</v>
-      </c>
-      <c r="G40">
-        <v>14</v>
-      </c>
-      <c r="H40">
-        <v>70.5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41">
-        <v>5.2</v>
-      </c>
-      <c r="G41">
-        <v>51.6</v>
-      </c>
-      <c r="H41">
-        <v>43.2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42">
-        <v>22.7</v>
-      </c>
-      <c r="G42">
-        <v>13.2</v>
-      </c>
-      <c r="H42">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="I42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43">
-        <v>7.3</v>
-      </c>
-      <c r="G43">
-        <v>45.1</v>
-      </c>
-      <c r="H43">
-        <v>47.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <v>14</v>
-      </c>
-      <c r="G44">
-        <v>15.8</v>
-      </c>
-      <c r="H44">
-        <v>70.2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45">
-        <v>4.3</v>
-      </c>
-      <c r="G45">
-        <v>45.2</v>
-      </c>
-      <c r="H45">
-        <v>50.5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46">
-        <v>4.5</v>
-      </c>
-      <c r="G46">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H46">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="I46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47">
-        <v>1.7</v>
-      </c>
-      <c r="G47">
-        <v>57.3</v>
-      </c>
-      <c r="H47">
-        <v>41.1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48">
-        <v>1.6</v>
-      </c>
-      <c r="G48">
-        <v>18.8</v>
-      </c>
-      <c r="H48">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="I48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49">
-        <v>1.3</v>
-      </c>
-      <c r="G49">
-        <v>58.9</v>
-      </c>
-      <c r="H49">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="I49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50">
-        <v>23.4</v>
-      </c>
-      <c r="G50">
-        <v>20.6</v>
-      </c>
-      <c r="H50">
-        <v>56</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51">
-        <v>22.4</v>
-      </c>
-      <c r="G51">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H51">
-        <v>61.5</v>
-      </c>
-      <c r="I51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52">
-        <v>23.6</v>
-      </c>
-      <c r="G52">
-        <v>24.8</v>
-      </c>
-      <c r="H52">
-        <v>51.7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53">
-        <v>22.7</v>
-      </c>
-      <c r="G53">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H53">
-        <v>60.2</v>
-      </c>
-      <c r="I53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54">
-        <v>6.8</v>
-      </c>
-      <c r="G54">
-        <v>25.4</v>
-      </c>
-      <c r="H54">
-        <v>67.8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <v>10.3</v>
-      </c>
-      <c r="G55">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="H55">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="I55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56">
-        <v>6.7</v>
-      </c>
-      <c r="G56">
-        <v>23.7</v>
-      </c>
-      <c r="H56">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="I56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57">
-        <v>9.5</v>
-      </c>
-      <c r="G57">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H57">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="I57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58">
-        <v>5.7</v>
-      </c>
-      <c r="G58">
-        <v>18.7</v>
-      </c>
-      <c r="H58">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="I58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G59">
-        <v>16.2</v>
-      </c>
-      <c r="H59">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="I59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60">
-        <v>2.7</v>
-      </c>
-      <c r="G60">
-        <v>21.7</v>
-      </c>
-      <c r="H60">
-        <v>75.7</v>
-      </c>
-      <c r="I60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61">
-        <v>3.2</v>
-      </c>
-      <c r="G61">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H61">
-        <v>78.5</v>
-      </c>
-      <c r="I61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="F62">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G62">
-        <v>22.6</v>
-      </c>
-      <c r="H62">
-        <v>72.8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>17.7</v>
-      </c>
-      <c r="H63">
-        <v>78.3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64">
-        <v>4.5</v>
-      </c>
-      <c r="G64">
-        <v>29.9</v>
-      </c>
-      <c r="H64">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="I64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65">
-        <v>2.9</v>
-      </c>
-      <c r="G65">
-        <v>17.8</v>
-      </c>
-      <c r="H65">
-        <v>79.3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>110</v>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7DE791D-F46E-4FEE-8974-607610808501}">
           <x14:formula1>
             <xm:f>dont_touch!$A$2:$A$251</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I65</xm:sqref>
+          <xm:sqref>I3:I250</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{958AA415-93E0-42B7-9FF1-8B8BF0D7ED39}">
+          <x14:formula1>
+            <xm:f>dont_touch!$A$2:$A$251</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{42B4B9C9-3C60-48CF-8AD5-C99FA8C92A97}">
           <x14:formula1>
             <xm:f>dont_touch!$C$2:$C$251</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J17</xm:sqref>
+          <xm:sqref>J2:J251</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC916597-D4F6-407D-A9C2-E6DD32BB0EBF}">
+          <x14:formula1>
+            <xm:f>dont_touch!$J$1:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4887,110 +4592,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>122</v>
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/compiled_data.xlsx
+++ b/big_fit/compiled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F565A-A159-4B23-8F13-840D2404AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C3561-EFFD-4B4B-BFAD-3FA6B9708BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>CAGE#</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Miller-Plate37-A03</t>
   </si>
   <si>
-    <t>d7</t>
-  </si>
-  <si>
     <t>Miller-Plate37-A04</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Miller-Plate37-A06</t>
   </si>
   <si>
-    <t>d21</t>
-  </si>
-  <si>
     <t>Miller-Plate37-A07</t>
   </si>
   <si>
@@ -227,6 +221,15 @@
   </si>
   <si>
     <t>d28.g9</t>
+  </si>
+  <si>
+    <t>d21.g46</t>
+  </si>
+  <si>
+    <t>d21.g9</t>
+  </si>
+  <si>
+    <t>d7.g9</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,8 +639,8 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,7 +690,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>95.1</v>
@@ -713,7 +716,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>26.7</v>
@@ -725,7 +728,10 @@
         <v>59.2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -745,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>24.8</v>
@@ -754,7 +760,16 @@
         <v>12.2</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -765,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>25.2</v>
@@ -791,13 +806,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>26.9</v>
@@ -817,13 +832,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>35.1</v>
@@ -833,6 +848,15 @@
       </c>
       <c r="H7">
         <v>52.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -843,13 +867,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>30.5</v>
@@ -861,7 +885,10 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -872,16 +899,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>99.6</v>
@@ -898,16 +925,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>94</v>
@@ -919,10 +946,13 @@
         <v>4.3</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -930,16 +960,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>92.9</v>
@@ -949,6 +979,15 @@
       </c>
       <c r="H11">
         <v>5.4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -956,16 +995,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>94.5</v>
@@ -982,16 +1021,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>92.6</v>
@@ -1008,16 +1047,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>95.1</v>
@@ -1027,6 +1066,15 @@
       </c>
       <c r="H14">
         <v>4.2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,16 +1082,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>96.3</v>
@@ -1055,10 +1103,13 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4610,10 +4661,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -4624,10 +4675,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -4638,10 +4689,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -4652,10 +4703,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -4663,7 +4714,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -4671,7 +4722,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>

--- a/big_fit/compiled_data.xlsx
+++ b/big_fit/compiled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C3561-EFFD-4B4B-BFAD-3FA6B9708BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBBF3D-285E-44A2-A721-C93557F36C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>CAGE#</t>
   </si>
@@ -118,6 +118,132 @@
     <t>J</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
     <t>CAGE3267</t>
   </si>
   <si>
@@ -127,12 +253,18 @@
     <t>hFGFR3</t>
   </si>
   <si>
+    <t>RT-112</t>
+  </si>
+  <si>
     <t>Miller-Plate37-A02</t>
   </si>
   <si>
     <t>Miller-Plate37-A03</t>
   </si>
   <si>
+    <t>d7</t>
+  </si>
+  <si>
     <t>Miller-Plate37-A04</t>
   </si>
   <si>
@@ -148,6 +280,9 @@
     <t>Miller-Plate37-A06</t>
   </si>
   <si>
+    <t>d21</t>
+  </si>
+  <si>
     <t>Miller-Plate37-A07</t>
   </si>
   <si>
@@ -205,31 +340,16 @@
     <t>CAGE3269_RT112-g9_rep3</t>
   </si>
   <si>
-    <t>RT-112.g9</t>
-  </si>
-  <si>
     <t>d3.g46</t>
   </si>
   <si>
-    <t>RT-112.g46</t>
+    <t>d3.g9</t>
+  </si>
+  <si>
+    <t>d28.g9</t>
   </si>
   <si>
     <t>d28.g46</t>
-  </si>
-  <si>
-    <t>d3.g9</t>
-  </si>
-  <si>
-    <t>d28.g9</t>
-  </si>
-  <si>
-    <t>d21.g46</t>
-  </si>
-  <si>
-    <t>d21.g9</t>
-  </si>
-  <si>
-    <t>d7.g9</t>
   </si>
 </sst>
 </file>
@@ -629,22 +749,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,21 +796,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>95.1</v>
@@ -702,21 +822,21 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>26.7</v>
@@ -728,30 +848,27 @@
         <v>59.2</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>24.8</v>
@@ -760,33 +877,24 @@
         <v>12.2</v>
       </c>
       <c r="H4">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>25.2</v>
@@ -798,21 +906,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>26.9</v>
@@ -824,21 +932,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>35.1</v>
@@ -849,31 +957,22 @@
       <c r="H7">
         <v>52.5</v>
       </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F8">
         <v>30.5</v>
@@ -885,30 +984,27 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>99.6</v>
@@ -920,21 +1016,21 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>94</v>
@@ -946,30 +1042,27 @@
         <v>4.3</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>92.9</v>
@@ -980,31 +1073,22 @@
       <c r="H11">
         <v>5.4</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>94.5</v>
@@ -1016,21 +1100,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>92.6</v>
@@ -1042,21 +1126,21 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>95.1</v>
@@ -1067,31 +1151,22 @@
       <c r="H14">
         <v>4.2</v>
       </c>
-      <c r="I14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>96.3</v>
@@ -1103,1191 +1178,1188 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -2315,9 +2387,9 @@
           </x14:formula1>
           <xm:sqref>J2:J251</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC916597-D4F6-407D-A9C2-E6DD32BB0EBF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEB25465-49D9-4200-914A-67B26D7EA97D}">
           <x14:formula1>
-            <xm:f>dont_touch!$J$1:$J$10</xm:f>
+            <xm:f>dont_touch!$J$1:$J$52</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K251</xm:sqref>
         </x14:dataValidation>
@@ -2335,17 +2407,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2383,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2392,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2401,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2410,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2419,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2428,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2437,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2446,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2455,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2464,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2473,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2482,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2491,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2500,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2509,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2518,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2527,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2545,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2554,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2563,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2572,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2581,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2590,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2599,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2608,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2617,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2626,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2635,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2644,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2653,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2662,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2671,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2680,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2689,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2698,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2707,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2716,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2725,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2734,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2743,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2752,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2761,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2770,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2779,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2788,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2797,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2806,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2815,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2824,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2833,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2842,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2851,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2860,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2869,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2878,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2887,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2896,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2905,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2914,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2923,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2932,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2941,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2950,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2959,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2968,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2977,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2986,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2995,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3004,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3013,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3022,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3031,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3040,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3049,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3058,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3067,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3076,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3085,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3094,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3103,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3112,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3121,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3130,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3139,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3148,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3157,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3166,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3175,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3184,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3193,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3202,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3211,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3220,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3229,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3238,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3247,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3256,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3265,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3274,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3283,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3292,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3301,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3310,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3319,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3328,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3337,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3346,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3355,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3364,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3373,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3382,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3391,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3400,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3409,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3418,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3427,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3436,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3445,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3454,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3463,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3472,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3481,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3490,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3499,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3508,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3517,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3526,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3535,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3544,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3553,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3562,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3571,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3580,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3589,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3598,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3607,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3625,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3634,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3643,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3652,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3661,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3670,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3679,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3688,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3697,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3706,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3715,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3724,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3733,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3742,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3751,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3760,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3769,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3778,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3787,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3796,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3805,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3814,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3823,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3832,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3841,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3850,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3859,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3868,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3877,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3886,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3895,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3904,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3913,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3922,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3931,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3940,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3949,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3958,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3967,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3976,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3985,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3994,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4003,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4012,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4021,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4030,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4039,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4048,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4057,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4066,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4075,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4084,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4093,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4102,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4111,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4120,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4129,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4138,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4147,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4156,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4165,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4174,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4183,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4192,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4201,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4210,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4219,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4228,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4237,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4246,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4255,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4264,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4273,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4282,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4291,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4300,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4309,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4318,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4327,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4336,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4345,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4354,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4363,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4372,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4381,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4390,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4399,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4408,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4417,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4426,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4435,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -4444,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -4453,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -4462,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4471,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4480,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4489,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4498,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4507,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4516,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4525,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4534,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4543,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -4552,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -4561,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -4570,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -4579,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -4588,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -4597,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -4606,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4615,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -4643,15 +4715,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>11</v>
       </c>
@@ -4659,12 +4731,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -4673,12 +4745,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -4687,12 +4759,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -4701,46 +4773,256 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/compiled_data.xlsx
+++ b/big_fit/compiled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBBF3D-285E-44A2-A721-C93557F36C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30416C-5E7D-4BA0-AD4D-167D58E8CC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="108">
   <si>
     <t>CAGE#</t>
   </si>
@@ -259,6 +259,9 @@
     <t>Miller-Plate37-A02</t>
   </si>
   <si>
+    <t>d3</t>
+  </si>
+  <si>
     <t>Miller-Plate37-A03</t>
   </si>
   <si>
@@ -286,6 +289,12 @@
     <t>Miller-Plate37-A07</t>
   </si>
   <si>
+    <t>d28</t>
+  </si>
+  <si>
+    <t>RT112</t>
+  </si>
+  <si>
     <t>CAGE3269</t>
   </si>
   <si>
@@ -343,13 +352,13 @@
     <t>d3.g46</t>
   </si>
   <si>
+    <t>d28.g46</t>
+  </si>
+  <si>
     <t>d3.g9</t>
   </si>
   <si>
     <t>d28.g9</t>
-  </si>
-  <si>
-    <t>d28.g46</t>
   </si>
 </sst>
 </file>
@@ -749,17 +758,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -836,7 +846,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>26.7</v>
@@ -848,7 +858,7 @@
         <v>59.2</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -862,13 +872,13 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>24.8</v>
@@ -888,13 +898,13 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>25.2</v>
@@ -914,13 +924,13 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>26.9</v>
@@ -940,13 +950,13 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>35.1</v>
@@ -966,13 +976,13 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <v>30.5</v>
@@ -984,7 +994,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -995,25 +1005,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>99.6</v>
+        <v>95.9</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1021,31 +1031,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F10">
-        <v>94</v>
+        <v>26.8</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>14.6</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>58.6</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1053,25 +1063,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>92.9</v>
+        <v>25.3</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
       <c r="H11">
-        <v>5.4</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1079,25 +1089,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>94.5</v>
+        <v>27.8</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1105,25 +1115,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>92.6</v>
+        <v>29.6</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>13.2</v>
       </c>
       <c r="H13">
-        <v>6.2</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1131,25 +1141,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14">
-        <v>95.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>11.9</v>
       </c>
       <c r="H14">
-        <v>4.2</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1157,194 +1167,635 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F15">
-        <v>96.3</v>
+        <v>33.5</v>
       </c>
       <c r="G15">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>56.5</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>95.9</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>26.8</v>
+      </c>
+      <c r="G17">
+        <v>14.6</v>
+      </c>
+      <c r="H17">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>25.3</v>
+      </c>
+      <c r="G18">
+        <v>12.2</v>
+      </c>
+      <c r="H18">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19">
+        <v>27.8</v>
+      </c>
+      <c r="G19">
+        <v>11.2</v>
+      </c>
+      <c r="H19">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>29.6</v>
+      </c>
+      <c r="G20">
+        <v>13.2</v>
+      </c>
+      <c r="H20">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G21">
+        <v>11.9</v>
+      </c>
+      <c r="H21">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>33.5</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>99.6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>1.7</v>
+      </c>
+      <c r="H24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25">
+        <v>92.9</v>
+      </c>
+      <c r="G25">
+        <v>1.8</v>
+      </c>
+      <c r="H25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <v>94.5</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>92.6</v>
+      </c>
+      <c r="G27">
+        <v>1.2</v>
+      </c>
+      <c r="H27">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>95.1</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>96.3</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30">
+        <v>99.6</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>94</v>
+      </c>
+      <c r="G31">
+        <v>1.7</v>
+      </c>
+      <c r="H31">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32">
+        <v>92.9</v>
+      </c>
+      <c r="G32">
+        <v>1.8</v>
+      </c>
+      <c r="H32">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33">
+        <v>94.5</v>
+      </c>
+      <c r="G33">
+        <v>1.5</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>92.6</v>
+      </c>
+      <c r="G34">
+        <v>1.2</v>
+      </c>
+      <c r="H34">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35">
+        <v>95.1</v>
+      </c>
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+      <c r="H35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>96.3</v>
+      </c>
+      <c r="G36">
+        <v>0.7</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4733,10 +5184,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -4747,10 +5198,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -4761,10 +5212,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -4775,10 +5226,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -4786,7 +5237,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -4794,7 +5245,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>

--- a/big_fit/compiled_data.xlsx
+++ b/big_fit/compiled_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099D690-FC5A-4283-BA50-4C9BBC03247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118C7F6F-A80C-43D3-9098-2623E47046E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>CAGE#</t>
   </si>
@@ -255,65 +255,83 @@
     <t>Comparison_Group</t>
   </si>
   <si>
-    <t>CAGE3726</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-A01</t>
-  </si>
-  <si>
-    <t>mDcaf7</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-A03</t>
-  </si>
-  <si>
-    <t>g12 D7</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-A04</t>
-  </si>
-  <si>
-    <t>g12 D14</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-A05</t>
-  </si>
-  <si>
-    <t>g12 D21</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-B02</t>
-  </si>
-  <si>
-    <t>g20 D5</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-B03</t>
-  </si>
-  <si>
-    <t>g20 D7</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-B04</t>
-  </si>
-  <si>
-    <t>g20 D14</t>
-  </si>
-  <si>
-    <t>Miller-Plate29-B05</t>
-  </si>
-  <si>
-    <t>g20 D21</t>
-  </si>
-  <si>
-    <t>WT</t>
+    <t>SS120</t>
+  </si>
+  <si>
+    <t>hUBE2A</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E01</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E02</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E03</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E04</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E05</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-E06</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-F02</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-F03</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-F04</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-F05</t>
+  </si>
+  <si>
+    <t>Miller-Plate31-F06</t>
+  </si>
+  <si>
+    <t>SCCOHT1 WT</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g1 D3</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g1 D7</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g1 D14</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g1 D21</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g1 D28</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g2 D3</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g2 D7</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g2 D14</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g2 D21</t>
+  </si>
+  <si>
+    <t>SCCOHT1 g2 D28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +343,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,7 +428,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -416,6 +461,13 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -723,26 +775,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -788,22 +841,22 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>96.55</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(I2&lt;&gt;"",_xlfn.CONCAT(B2,"_",E2,"_",I2),""),"_",".")," ",".")</f>
@@ -814,7 +867,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -825,26 +878,26 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>13.27</v>
+        <v>3.38</v>
       </c>
       <c r="G3">
-        <v>24.49</v>
+        <v>14.26</v>
       </c>
       <c r="H3">
-        <v>62.24</v>
+        <v>82.36</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="1">SUBSTITUTE(SUBSTITUTE(IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),""),"_",".")," ",".")</f>
-        <v>CAGE3726.g12.D7.initial</v>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),""),"_",".")," ",".")</f>
+        <v>SS120.SCCOHT1.g1.D3.initial</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
@@ -854,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -862,25 +915,25 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>1.81</v>
       </c>
       <c r="G4">
-        <v>24.52</v>
+        <v>15.29</v>
       </c>
       <c r="H4">
-        <v>35.479999999999997</v>
+        <v>82.9</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J66" si="1">SUBSTITUTE(SUBSTITUTE(IF(I4&lt;&gt;"",_xlfn.CONCAT(B4,"_",E4,"_",I4),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L4" t="str">
@@ -888,7 +941,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -896,39 +949,29 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F5">
-        <v>52.63</v>
+        <v>2.92</v>
       </c>
       <c r="G5">
-        <v>20.100000000000001</v>
+        <v>16.39</v>
       </c>
       <c r="H5">
-        <v>27.27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>CAGE3726.g12.D21.final</v>
+        <v>80.680000000000007</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K5&lt;&gt;"",_xlfn.CONCAT(J7,"_",K5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -936,39 +979,29 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>24.8</v>
+        <v>2.99</v>
       </c>
       <c r="G6">
-        <v>11.2</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="H6">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>CAGE3726.g20.D5.initial</v>
+        <v>80.33</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K6&lt;&gt;"",_xlfn.CONCAT(J8,"_",K6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -976,33 +1009,39 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F7">
-        <v>32.58</v>
+        <v>1.79</v>
       </c>
       <c r="G7">
-        <v>12.36</v>
+        <v>15.81</v>
       </c>
       <c r="H7">
-        <v>55.06</v>
+        <v>82.4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I7&lt;&gt;"",_xlfn.CONCAT(B7,"_",E7,"_",I7),""),"_",".")," ",".")</f>
+        <v>SS120.SCCOHT1.g1.D28.final</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K7&lt;&gt;"",_xlfn.CONCAT(J24,"_",K7),"")</f>
+        <v/>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1010,33 +1049,39 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>82.86</v>
+        <v>7.15</v>
       </c>
       <c r="G8">
-        <v>10.29</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="H8">
-        <v>6.86</v>
+        <v>74.05</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I8&lt;&gt;"",_xlfn.CONCAT(B8,"_",E8,"_",I8),""),"_",".")," ",".")</f>
+        <v>SS120.SCCOHT1.g2.D3.initial</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K8&lt;&gt;"",_xlfn.CONCAT(J25,"_",K8),"")</f>
+        <v/>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1044,42 +1089,53 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>82.29</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>8.1199999999999992</v>
+        <v>21.87</v>
       </c>
       <c r="H9">
-        <v>9.59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>CAGE3726.g20.D21.final</v>
+        <v>68.13</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K9&lt;&gt;"",_xlfn.CONCAT(J12,"_",K9),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G10">
+        <v>20.04</v>
+      </c>
+      <c r="H10">
+        <v>62.77</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1089,10 +1145,31 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>23.79</v>
+      </c>
+      <c r="G11">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="H11">
+        <v>57.79</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1102,20 +1179,47 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>26.03</v>
+      </c>
+      <c r="G12">
+        <v>18.22</v>
+      </c>
+      <c r="H12">
+        <v>55.74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I12&lt;&gt;"",_xlfn.CONCAT(B12,"_",E12,"_",I12),""),"_",".")," ",".")</f>
+        <v>SS120.SCCOHT1.g2.D28.final</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12:L66" si="2">IF(K12&lt;&gt;"",_xlfn.CONCAT(J12,"_",K12),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <f>IF(K12&lt;&gt;"",_xlfn.CONCAT(#REF!,"_",K12),"")</f>
+        <v/>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1124,11 +1228,11 @@
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L13:L66" si="2">IF(K13&lt;&gt;"",_xlfn.CONCAT(J13,"_",K13),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1141,7 +1245,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1154,7 +1258,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1167,7 +1271,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1180,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1193,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1206,7 +1310,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1219,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1232,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1245,59 +1349,51 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="L23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <f>IF(K23&lt;&gt;"",_xlfn.CONCAT(#REF!,"_",K23),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I24&lt;&gt;"",_xlfn.CONCAT(B7,"_",E7,"_",I24),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <f>IF(K24&lt;&gt;"",_xlfn.CONCAT(#REF!,"_",K24),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I25&lt;&gt;"",_xlfn.CONCAT(B8,"_",E8,"_",I25),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <f>IF(K25&lt;&gt;"",_xlfn.CONCAT(#REF!,"_",K25),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="L26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <f>IF(K26&lt;&gt;"",_xlfn.CONCAT(#REF!,"_",K26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1310,7 +1406,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1323,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1336,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1349,7 +1445,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1362,7 +1458,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1375,7 +1471,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1388,7 +1484,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1401,7 +1497,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1414,7 +1510,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1427,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1440,7 +1536,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1453,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1466,7 +1562,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1479,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1492,7 +1588,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1505,7 +1601,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1518,7 +1614,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1531,7 +1627,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1544,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1557,7 +1653,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1570,7 +1666,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1583,7 +1679,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1596,7 +1692,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1609,7 +1705,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1622,7 +1718,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1635,7 +1731,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1648,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1661,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1674,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1687,7 +1783,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1700,7 +1796,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1713,7 +1809,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1726,7 +1822,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1739,7 +1835,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1752,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1765,7 +1861,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1778,7 +1874,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1791,7 +1887,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1804,7 +1900,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1817,7 +1913,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1830,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1843,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1856,7 +1952,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1869,7 +1965,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1882,7 +1978,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1895,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1908,7 +2004,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1921,7 +2017,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1934,7 +2030,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1947,7 +2043,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1960,7 +2056,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1973,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1986,7 +2082,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1999,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2012,7 +2108,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2025,7 +2121,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2038,7 +2134,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2051,7 +2147,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2064,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2077,7 +2173,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2090,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2103,7 +2199,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2116,7 +2212,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2129,7 +2225,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2142,7 +2238,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2155,7 +2251,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2168,7 +2264,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2181,7 +2277,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2194,7 +2290,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2207,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2220,7 +2316,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2233,7 +2329,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2246,7 +2342,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2259,7 +2355,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2272,7 +2368,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2285,7 +2381,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2298,7 +2394,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2311,7 +2407,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2324,7 +2420,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2337,7 +2433,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2350,7 +2446,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2363,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2376,7 +2472,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2389,7 +2485,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2402,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2415,7 +2511,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2428,7 +2524,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2441,7 +2537,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2454,7 +2550,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2467,7 +2563,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2480,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2493,7 +2589,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2506,7 +2602,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2519,7 +2615,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2532,7 +2628,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2545,7 +2641,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2558,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2571,7 +2667,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2584,7 +2680,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2597,7 +2693,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2610,7 +2706,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2623,7 +2719,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2636,7 +2732,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2649,7 +2745,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2662,7 +2758,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2675,7 +2771,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2688,7 +2784,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2701,7 +2797,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2714,7 +2810,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2727,7 +2823,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2740,7 +2836,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2753,7 +2849,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2766,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2779,7 +2875,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2792,7 +2888,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2805,7 +2901,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2818,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2831,7 +2927,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2844,7 +2940,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2857,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2870,7 +2966,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2883,7 +2979,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2896,7 +2992,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2909,7 +3005,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2922,7 +3018,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2935,7 +3031,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2948,7 +3044,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2961,7 +3057,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2974,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2987,7 +3083,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3000,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3013,7 +3109,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3026,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3039,7 +3135,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3052,7 +3148,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3065,7 +3161,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3078,7 +3174,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3091,7 +3187,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3104,7 +3200,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3117,7 +3213,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3130,7 +3226,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3143,7 +3239,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3156,7 +3252,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3169,7 +3265,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3182,7 +3278,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3195,7 +3291,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3208,7 +3304,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3221,7 +3317,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3234,7 +3330,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3247,7 +3343,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3260,7 +3356,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3273,7 +3369,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3286,7 +3382,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3299,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3312,7 +3408,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3325,7 +3421,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3338,7 +3434,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3351,7 +3447,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3364,7 +3460,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3377,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3390,7 +3486,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3403,7 +3499,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3416,7 +3512,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3429,7 +3525,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3442,7 +3538,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3455,7 +3551,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3468,7 +3564,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3481,7 +3577,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -3494,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3507,7 +3603,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3520,7 +3616,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3533,7 +3629,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3546,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -3559,7 +3655,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3572,7 +3668,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -3585,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -3598,7 +3694,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -3611,7 +3707,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3624,7 +3720,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -3637,7 +3733,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -3650,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -3663,7 +3759,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -3676,7 +3772,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -3689,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -3702,7 +3798,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -3715,7 +3811,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -3728,7 +3824,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -3741,7 +3837,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -3754,7 +3850,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -3767,7 +3863,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -3780,7 +3876,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -3793,7 +3889,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -3806,7 +3902,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -3819,7 +3915,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -3832,7 +3928,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -3845,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -3858,7 +3954,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -3871,7 +3967,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -3884,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -3897,7 +3993,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -3910,7 +4006,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -3923,7 +4019,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -3936,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -3949,7 +4045,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -3962,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -3975,7 +4071,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -3988,7 +4084,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4001,7 +4097,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4014,7 +4110,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4027,7 +4123,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4040,7 +4136,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4053,7 +4149,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4066,7 +4162,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4079,7 +4175,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4092,7 +4188,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4105,7 +4201,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -4118,7 +4214,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -4131,7 +4227,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -4144,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -4157,7 +4253,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -4170,7 +4266,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -4183,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -4196,7 +4292,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4209,7 +4305,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -4223,12 +4319,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="M2:M4 M10:M11 M13:M22 M27:M250">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>NOT(ISBLANK($I2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M250">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(ISBLANK($M2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>NOT(ISBLANK($I2))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M6">
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>NOT(ISBLANK($I7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M8">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>NOT(ISBLANK($I24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>NOT(ISBLANK($I12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12 M23:M26">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>NOT(ISBLANK(#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4241,17 +4360,17 @@
           </x14:formula1>
           <xm:sqref>M2:M251</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA2D07A2-ABA5-4AE3-BC49-82DDDB511260}">
-          <x14:formula1>
-            <xm:f>dont_touch!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I251</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{652AC566-59B1-41D7-9D5C-3FEDD25009DC}">
           <x14:formula1>
             <xm:f>dont_touch!$H$1:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K250</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA2D07A2-ABA5-4AE3-BC49-82DDDB511260}">
+          <x14:formula1>
+            <xm:f>dont_touch!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I4 I7:I8 I10:I22 I24:I25 I27:I251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4267,9 +4386,9 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4283,7 +4402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4297,7 +4416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>71</v>
       </c>
@@ -4308,7 +4427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4316,242 +4435,242 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
         <v>64</v>
       </c>
